--- a/Ubungen/Grundpraktikum/C1/Versuch 41/Durchfuhrung/Stehende Wellen.xlsx
+++ b/Ubungen/Grundpraktikum/C1/Versuch 41/Durchfuhrung/Stehende Wellen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junwe\Documents\GitHub\Uni-Wuerzburg-Bachlor-MathPhy\Ubungen\Grundpraktikum\C1\Versuch 41\Durchfuhrung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Uni-Wuerzburg-Bachlor-MathPhy\Ubungen\Grundpraktikum\C1\Versuch 41\Durchfuhrung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B814CF8D-5DAE-4939-B071-0627A56EEC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CD4A78-3CC4-40C8-88F0-B7CBE591DC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -27,87 +27,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
-    <t>Frequenz</t>
+    <t>Frequenz (MHz)</t>
   </si>
   <si>
-    <t>1.905MHz</t>
+    <t>peak-peak (mV)</t>
   </si>
   <si>
-    <t>22.4 mV</t>
+    <t>Frequenz (kHz)</t>
   </si>
   <si>
-    <t>1.914MHz</t>
-  </si>
-  <si>
-    <t>21.6 mV</t>
-  </si>
-  <si>
-    <t>1.905 MHz</t>
-  </si>
-  <si>
-    <t>22.0 mV</t>
-  </si>
-  <si>
-    <t>peak-peak</t>
-  </si>
-  <si>
-    <t>949kHz</t>
-  </si>
-  <si>
-    <t>15mV</t>
-  </si>
-  <si>
-    <t>Peak-Peak</t>
-  </si>
-  <si>
-    <t>938 kHz</t>
-  </si>
-  <si>
-    <t>14.8 mV</t>
-  </si>
-  <si>
-    <t>14.5 mV</t>
-  </si>
-  <si>
-    <t>940 kHz</t>
-  </si>
-  <si>
-    <t>2.877 MHz</t>
-  </si>
-  <si>
-    <t>26.6 mV</t>
-  </si>
-  <si>
-    <t>2.874 MHz</t>
-  </si>
-  <si>
-    <t>27 mV</t>
-  </si>
-  <si>
-    <t>2.876 MHz</t>
-  </si>
-  <si>
-    <t>2.879 MHz</t>
-  </si>
-  <si>
-    <t>26.4 mV</t>
-  </si>
-  <si>
-    <t>1.908 MHz</t>
-  </si>
-  <si>
-    <t>23.4 mV</t>
-  </si>
-  <si>
-    <t>24.8 mV</t>
-  </si>
-  <si>
-    <t>15 mV</t>
-  </si>
-  <si>
-    <t>2.881 MHz</t>
+    <t>Peak-Peak (mV)</t>
   </si>
 </sst>
 </file>
@@ -427,58 +358,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1.905</v>
+      </c>
+      <c r="B2">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1.9139999999999999</v>
+      </c>
+      <c r="B3">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1.905</v>
+      </c>
+      <c r="B4">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1.9079999999999999</v>
+      </c>
+      <c r="B5">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1.905</v>
+      </c>
+      <c r="B6">
+        <v>24.8</v>
       </c>
     </row>
   </sheetData>
@@ -491,57 +422,57 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>949</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>938</v>
+      </c>
+      <c r="B3">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>938</v>
+      </c>
+      <c r="B4">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>940</v>
+      </c>
+      <c r="B5">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>940</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -554,57 +485,57 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>26</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2.8769999999999998</v>
+      </c>
+      <c r="B2">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2.8740000000000001</v>
+      </c>
+      <c r="B3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2.8759999999999999</v>
+      </c>
+      <c r="B4">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2.879</v>
+      </c>
+      <c r="B5">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2.8809999999999998</v>
       </c>
       <c r="B6">
         <v>26.2</v>
